--- a/LocalBusiness/Todo.xlsx
+++ b/LocalBusiness/Todo.xlsx
@@ -2,32 +2,134 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="TODOS" sheetId="1" r:id="rId1"/>
+    <sheet name="Definitions" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="EmpList">Tabelle2[Type]</definedName>
+    <definedName name="statList">Tabelle3[Status]</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
-  <si>
-    <t>Titel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+  <si>
+    <t>Priority</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>DataFormat</t>
+  </si>
+  <si>
+    <t>Special user interface designs/elements like special input elemnts for data types or values</t>
+  </si>
+  <si>
+    <t>Datastorage</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Special view representing a subset of data or special information</t>
+  </si>
+  <si>
+    <t>Special dataformat to be used or the data can be converted to</t>
+  </si>
+  <si>
+    <t>Jobs corresponding to user authentication to differentiate users</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Encrypten/Decryption methods to enhance data transfer and storage securaty</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Changes of the data model</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>DataSyncronisation</t>
+  </si>
+  <si>
+    <t>Syncronising data via DropBox Scydrive etc.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Projectdependency 
+((low)1-(high)5)</t>
+  </si>
+  <si>
+    <t>Effort 
+((low)1-(high)5)</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>InWork</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Contact PartialView</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
     <t>Events PartialView</t>
   </si>
   <si>
-    <t>Contact PartialView</t>
+    <t>Schedule</t>
   </si>
   <si>
     <t>Schedule PartialView</t>
@@ -36,15 +138,18 @@
     <t>Contacts Custom DisplayFor</t>
   </si>
   <si>
+    <t>Layout, CSS</t>
+  </si>
+  <si>
+    <t>Bootstrap Responsive Design</t>
+  </si>
+  <si>
     <t>Background Image</t>
   </si>
   <si>
     <t>Background Paralax Scrolling</t>
   </si>
   <si>
-    <t>Bootstrap Responsive Design</t>
-  </si>
-  <si>
     <t>Events Custom DisplayFor</t>
   </si>
   <si>
@@ -63,6 +168,9 @@
     <t>Schedule CMS</t>
   </si>
   <si>
+    <t>Brands</t>
+  </si>
+  <si>
     <t>Brands CMS</t>
   </si>
   <si>
@@ -72,24 +180,6 @@
     <t>Brands Images</t>
   </si>
   <si>
-    <t>SubGroup</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>Layout, CSS</t>
-  </si>
-  <si>
-    <t>Brands</t>
-  </si>
-  <si>
     <t>Social Media</t>
   </si>
   <si>
@@ -97,13 +187,88 @@
   </si>
   <si>
     <t>Facebook Like</t>
+  </si>
+  <si>
+    <t>DisplayFor Adresss/GPS</t>
+  </si>
+  <si>
+    <t>GoogleMaps partial view</t>
+  </si>
+  <si>
+    <t>DisplayFor Contacts</t>
+  </si>
+  <si>
+    <t>Contacts partial view</t>
+  </si>
+  <si>
+    <t>DisplayFor Email</t>
+  </si>
+  <si>
+    <t>Shortcut to email sending</t>
+  </si>
+  <si>
+    <t>DisplayFor Telephon</t>
+  </si>
+  <si>
+    <t>Shortcut to dialing</t>
+  </si>
+  <si>
+    <t>DisplayFor Date</t>
+  </si>
+  <si>
+    <t>Date Input field</t>
+  </si>
+  <si>
+    <t>DisplayFor Time</t>
+  </si>
+  <si>
+    <t>Time Input field /CultureVariant time format</t>
+  </si>
+  <si>
+    <t>Logo CMS</t>
+  </si>
+  <si>
+    <t>CMS to manage Logo</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Contacts, CMS</t>
+  </si>
+  <si>
+    <t>Events, CMS</t>
+  </si>
+  <si>
+    <t>Schedule, CMS</t>
+  </si>
+  <si>
+    <t>Brands, CMS</t>
+  </si>
+  <si>
+    <t>Background CMS</t>
+  </si>
+  <si>
+    <t>CMS to manage Background</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Pagescroll to specific taged div</t>
+  </si>
+  <si>
+    <t>Display, Contacts</t>
+  </si>
+  <si>
+    <t>Display, Events, Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +276,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,25 +360,578 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Ausgabe" xfId="5" builtinId="21"/>
+    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H29" totalsRowShown="0">
+  <sortState ref="A2:H29">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Projectdependency _x000a_((low)1-(high)5)"/>
+    <tableColumn id="2" name="Effort _x000a_((low)1-(high)5)" dataDxfId="37"/>
+    <tableColumn id="8" name="Priority" dataDxfId="36">
+      <calculatedColumnFormula>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Type"/>
+    <tableColumn id="7" name="Note"/>
+    <tableColumn id="6" name="sketch"/>
+    <tableColumn id="9" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="D1:E8" totalsRowShown="0">
+  <autoFilter ref="D1:E8">
+    <filterColumn colId="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Status"/>
+    <tableColumn id="2" name="Color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +969,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,7 +1039,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,199 +1213,1350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C10">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C11">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3.5</v>
+      </c>
+      <c r="C16">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3.5</v>
+      </c>
+      <c r="C18">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3.5</v>
+      </c>
+      <c r="C21">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="2">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2.25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C25">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="12" customFormat="1">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="12" customFormat="1">
+      <c r="A29"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1"/>
+    <row r="31" spans="1:8" s="12" customFormat="1"/>
+    <row r="32" spans="1:8" s="12" customFormat="1"/>
+    <row r="33" s="12" customFormat="1"/>
+    <row r="34" s="12" customFormat="1"/>
+    <row r="35" s="12" customFormat="1"/>
+    <row r="36" s="12" customFormat="1"/>
+    <row r="37" s="12" customFormat="1"/>
+    <row r="38" s="12" customFormat="1"/>
+    <row r="39" s="12" customFormat="1"/>
+    <row r="40" s="12" customFormat="1"/>
+    <row r="41" s="12" customFormat="1"/>
+    <row r="42" s="12" customFormat="1"/>
+    <row r="43" s="12" customFormat="1"/>
+    <row r="44" s="12" customFormat="1"/>
+    <row r="45" s="12" customFormat="1"/>
+    <row r="46" s="12" customFormat="1"/>
+    <row r="47" s="12" customFormat="1"/>
+    <row r="48" s="12" customFormat="1"/>
+    <row r="49" s="12" customFormat="1"/>
+    <row r="50" s="12" customFormat="1"/>
+    <row r="51" s="12" customFormat="1"/>
+    <row r="52" s="12" customFormat="1"/>
+    <row r="53" s="12" customFormat="1"/>
+    <row r="54" s="12" customFormat="1"/>
+    <row r="55" s="12" customFormat="1"/>
+    <row r="56" s="12" customFormat="1"/>
+    <row r="57" s="12" customFormat="1"/>
+    <row r="58" s="12" customFormat="1"/>
+    <row r="59" s="12" customFormat="1"/>
+    <row r="60" s="12" customFormat="1"/>
+    <row r="61" s="12" customFormat="1"/>
+    <row r="62" s="12" customFormat="1"/>
+    <row r="63" s="12" customFormat="1"/>
+    <row r="64" s="12" customFormat="1"/>
+    <row r="65" s="12" customFormat="1"/>
+    <row r="66" s="12" customFormat="1"/>
+    <row r="67" s="12" customFormat="1"/>
+    <row r="68" s="12" customFormat="1"/>
+    <row r="69" s="12" customFormat="1"/>
+    <row r="70" s="12" customFormat="1"/>
+    <row r="71" s="12" customFormat="1"/>
+    <row r="72" s="12" customFormat="1"/>
+    <row r="73" s="12" customFormat="1"/>
+    <row r="74" s="12" customFormat="1"/>
+    <row r="75" s="12" customFormat="1"/>
+    <row r="76" s="12" customFormat="1"/>
+    <row r="77" s="12" customFormat="1"/>
+    <row r="78" s="12" customFormat="1"/>
+    <row r="79" s="12" customFormat="1"/>
+    <row r="80" s="12" customFormat="1"/>
+    <row r="81" s="12" customFormat="1"/>
+    <row r="82" s="12" customFormat="1"/>
+    <row r="83" s="12" customFormat="1"/>
+    <row r="84" s="12" customFormat="1"/>
+    <row r="85" s="12" customFormat="1"/>
+    <row r="86" s="12" customFormat="1"/>
+    <row r="87" s="12" customFormat="1"/>
+    <row r="88" s="12" customFormat="1"/>
+    <row r="89" s="12" customFormat="1"/>
+    <row r="90" s="12" customFormat="1"/>
+    <row r="91" s="12" customFormat="1"/>
+    <row r="92" s="12" customFormat="1"/>
+    <row r="93" s="12" customFormat="1"/>
+    <row r="94" s="12" customFormat="1"/>
+    <row r="95" s="12" customFormat="1"/>
+    <row r="96" s="12" customFormat="1"/>
+    <row r="97" s="12" customFormat="1"/>
+    <row r="98" s="12" customFormat="1"/>
+    <row r="99" s="12" customFormat="1"/>
+    <row r="100" s="12" customFormat="1"/>
+    <row r="101" s="12" customFormat="1"/>
+    <row r="102" s="12" customFormat="1"/>
+    <row r="103" s="12" customFormat="1"/>
+    <row r="104" s="12" customFormat="1"/>
+    <row r="105" s="12" customFormat="1"/>
+    <row r="106" s="12" customFormat="1"/>
+    <row r="107" s="12" customFormat="1"/>
+    <row r="108" s="12" customFormat="1"/>
+    <row r="109" s="12" customFormat="1"/>
+    <row r="110" s="12" customFormat="1"/>
+    <row r="111" s="12" customFormat="1"/>
+    <row r="112" s="12" customFormat="1"/>
+    <row r="113" s="12" customFormat="1"/>
+    <row r="114" s="12" customFormat="1"/>
+    <row r="115" s="12" customFormat="1"/>
+    <row r="116" s="12" customFormat="1"/>
+    <row r="117" s="12" customFormat="1"/>
+    <row r="118" s="12" customFormat="1"/>
+    <row r="119" s="12" customFormat="1"/>
+    <row r="120" s="12" customFormat="1"/>
+    <row r="121" s="12" customFormat="1"/>
+    <row r="122" s="12" customFormat="1"/>
+    <row r="123" s="12" customFormat="1"/>
+    <row r="124" s="12" customFormat="1"/>
+    <row r="125" s="12" customFormat="1"/>
+    <row r="126" s="12" customFormat="1"/>
+    <row r="127" s="12" customFormat="1"/>
+    <row r="128" s="12" customFormat="1"/>
+    <row r="129" s="12" customFormat="1"/>
+    <row r="130" s="12" customFormat="1"/>
+    <row r="131" s="12" customFormat="1"/>
+    <row r="132" s="12" customFormat="1"/>
+    <row r="133" s="12" customFormat="1"/>
+    <row r="134" s="12" customFormat="1"/>
+    <row r="135" s="12" customFormat="1"/>
+    <row r="136" s="12" customFormat="1"/>
+    <row r="137" s="12" customFormat="1"/>
+    <row r="138" s="12" customFormat="1"/>
+    <row r="139" s="12" customFormat="1"/>
+    <row r="140" s="12" customFormat="1"/>
+    <row r="141" s="12" customFormat="1"/>
+    <row r="142" s="12" customFormat="1"/>
+    <row r="143" s="12" customFormat="1"/>
+    <row r="144" s="12" customFormat="1"/>
+    <row r="145" s="12" customFormat="1"/>
+    <row r="146" s="12" customFormat="1"/>
+    <row r="147" s="12" customFormat="1"/>
+    <row r="148" s="12" customFormat="1"/>
+    <row r="149" s="12" customFormat="1"/>
+    <row r="150" s="12" customFormat="1"/>
+    <row r="151" s="12" customFormat="1"/>
+    <row r="152" s="12" customFormat="1"/>
+    <row r="153" s="12" customFormat="1"/>
+    <row r="154" s="12" customFormat="1"/>
+    <row r="155" s="12" customFormat="1"/>
+    <row r="156" s="12" customFormat="1"/>
+    <row r="157" s="12" customFormat="1"/>
+    <row r="158" s="12" customFormat="1"/>
+    <row r="159" s="12" customFormat="1"/>
+    <row r="160" s="12" customFormat="1"/>
+    <row r="161" s="12" customFormat="1"/>
+    <row r="162" s="12" customFormat="1"/>
+    <row r="163" s="12" customFormat="1"/>
+    <row r="164" s="12" customFormat="1"/>
+    <row r="165" s="12" customFormat="1"/>
+    <row r="166" s="12" customFormat="1"/>
+    <row r="167" s="12" customFormat="1"/>
+    <row r="168" s="12" customFormat="1"/>
+    <row r="169" s="12" customFormat="1"/>
+    <row r="170" s="12" customFormat="1"/>
+    <row r="171" s="12" customFormat="1"/>
+    <row r="172" s="12" customFormat="1"/>
+    <row r="173" s="12" customFormat="1"/>
+    <row r="174" s="12" customFormat="1"/>
+    <row r="175" s="12" customFormat="1"/>
+    <row r="176" s="12" customFormat="1"/>
+    <row r="177" s="12" customFormat="1"/>
+    <row r="178" s="12" customFormat="1"/>
+    <row r="179" s="12" customFormat="1"/>
+    <row r="180" s="12" customFormat="1"/>
+    <row r="181" s="12" customFormat="1"/>
+    <row r="182" s="12" customFormat="1"/>
+    <row r="183" s="12" customFormat="1"/>
+    <row r="184" s="12" customFormat="1"/>
+    <row r="185" s="12" customFormat="1"/>
+    <row r="186" s="12" customFormat="1"/>
+    <row r="187" s="12" customFormat="1"/>
+    <row r="188" s="12" customFormat="1"/>
+    <row r="189" s="12" customFormat="1"/>
+    <row r="190" s="12" customFormat="1"/>
+    <row r="191" s="12" customFormat="1"/>
+    <row r="192" s="12" customFormat="1"/>
+    <row r="193" s="12" customFormat="1"/>
+    <row r="194" s="12" customFormat="1"/>
+    <row r="195" s="12" customFormat="1"/>
+    <row r="196" s="12" customFormat="1"/>
+    <row r="197" s="12" customFormat="1"/>
+    <row r="198" s="12" customFormat="1"/>
+    <row r="199" s="12" customFormat="1"/>
+    <row r="200" s="12" customFormat="1"/>
+    <row r="201" s="12" customFormat="1"/>
+    <row r="202" s="12" customFormat="1"/>
+    <row r="203" s="12" customFormat="1"/>
+    <row r="204" s="12" customFormat="1"/>
+    <row r="205" s="12" customFormat="1"/>
+    <row r="206" s="12" customFormat="1"/>
+    <row r="207" s="12" customFormat="1"/>
+    <row r="208" s="12" customFormat="1"/>
+    <row r="209" s="12" customFormat="1"/>
+    <row r="210" s="12" customFormat="1"/>
+    <row r="211" s="12" customFormat="1"/>
+    <row r="212" s="12" customFormat="1"/>
+    <row r="213" s="12" customFormat="1"/>
+    <row r="214" s="12" customFormat="1"/>
+    <row r="215" s="12" customFormat="1"/>
+    <row r="216" s="12" customFormat="1"/>
+    <row r="217" s="12" customFormat="1"/>
+    <row r="218" s="12" customFormat="1"/>
+    <row r="219" s="12" customFormat="1"/>
+    <row r="220" s="12" customFormat="1"/>
+    <row r="221" s="12" customFormat="1"/>
+    <row r="222" s="12" customFormat="1"/>
+    <row r="223" s="12" customFormat="1"/>
+    <row r="224" s="12" customFormat="1"/>
+    <row r="225" s="12" customFormat="1"/>
+    <row r="226" s="12" customFormat="1"/>
+    <row r="227" s="12" customFormat="1"/>
+    <row r="228" s="12" customFormat="1"/>
+    <row r="229" s="12" customFormat="1"/>
+    <row r="230" s="12" customFormat="1"/>
+    <row r="231" s="12" customFormat="1"/>
+    <row r="232" s="12" customFormat="1"/>
+    <row r="233" s="12" customFormat="1"/>
+    <row r="234" s="12" customFormat="1"/>
+    <row r="235" s="12" customFormat="1"/>
+    <row r="236" s="12" customFormat="1"/>
+    <row r="237" s="12" customFormat="1"/>
+    <row r="238" s="12" customFormat="1"/>
+    <row r="239" s="12" customFormat="1"/>
+    <row r="240" s="12" customFormat="1"/>
+    <row r="241" s="12" customFormat="1"/>
+    <row r="242" s="12" customFormat="1"/>
+    <row r="243" s="12" customFormat="1"/>
+    <row r="244" s="12" customFormat="1"/>
+    <row r="245" s="12" customFormat="1"/>
+    <row r="246" s="12" customFormat="1"/>
+    <row r="247" s="12" customFormat="1"/>
+    <row r="248" s="12" customFormat="1"/>
+    <row r="249" s="12" customFormat="1"/>
+    <row r="250" s="12" customFormat="1"/>
+    <row r="251" s="12" customFormat="1"/>
+    <row r="252" s="12" customFormat="1"/>
+    <row r="253" s="12" customFormat="1"/>
+    <row r="254" s="12" customFormat="1"/>
+    <row r="255" s="12" customFormat="1"/>
+    <row r="256" s="12" customFormat="1"/>
+    <row r="257" s="12" customFormat="1"/>
+    <row r="258" s="12" customFormat="1"/>
+    <row r="259" s="12" customFormat="1"/>
+    <row r="260" s="12" customFormat="1"/>
+    <row r="261" s="12" customFormat="1"/>
+    <row r="262" s="12" customFormat="1"/>
+    <row r="263" s="12" customFormat="1"/>
+    <row r="264" s="12" customFormat="1"/>
+    <row r="265" s="12" customFormat="1"/>
+    <row r="266" s="12" customFormat="1"/>
+    <row r="267" s="12" customFormat="1"/>
+    <row r="268" s="12" customFormat="1"/>
+    <row r="269" s="12" customFormat="1"/>
+    <row r="270" s="12" customFormat="1"/>
+    <row r="271" s="12" customFormat="1"/>
+    <row r="272" s="12" customFormat="1"/>
+    <row r="273" s="12" customFormat="1"/>
+    <row r="274" s="12" customFormat="1"/>
+    <row r="275" s="12" customFormat="1"/>
+    <row r="276" s="12" customFormat="1"/>
+    <row r="277" s="12" customFormat="1"/>
+    <row r="278" s="12" customFormat="1"/>
+    <row r="279" s="12" customFormat="1"/>
+    <row r="280" s="12" customFormat="1"/>
+    <row r="281" s="12" customFormat="1"/>
+    <row r="282" s="12" customFormat="1"/>
+    <row r="283" s="12" customFormat="1"/>
+    <row r="284" s="12" customFormat="1"/>
+    <row r="285" s="12" customFormat="1"/>
+    <row r="286" s="12" customFormat="1"/>
+    <row r="287" s="12" customFormat="1"/>
+    <row r="288" s="12" customFormat="1"/>
+    <row r="289" s="12" customFormat="1"/>
+    <row r="290" s="12" customFormat="1"/>
+    <row r="291" s="12" customFormat="1"/>
+    <row r="292" s="12" customFormat="1"/>
+    <row r="293" s="12" customFormat="1"/>
+    <row r="294" s="12" customFormat="1"/>
+    <row r="295" s="12" customFormat="1"/>
+    <row r="296" s="12" customFormat="1"/>
+    <row r="297" s="12" customFormat="1"/>
+    <row r="298" s="12" customFormat="1"/>
+    <row r="299" s="12" customFormat="1"/>
+    <row r="300" s="12" customFormat="1"/>
+    <row r="301" s="12" customFormat="1"/>
+    <row r="302" s="12" customFormat="1"/>
+    <row r="303" s="12" customFormat="1"/>
+    <row r="304" s="12" customFormat="1"/>
+    <row r="305" s="12" customFormat="1"/>
+    <row r="306" s="12" customFormat="1"/>
+    <row r="307" s="12" customFormat="1"/>
+    <row r="308" s="12" customFormat="1"/>
+    <row r="309" s="12" customFormat="1"/>
+    <row r="310" s="12" customFormat="1"/>
+    <row r="311" s="12" customFormat="1"/>
+    <row r="312" s="12" customFormat="1"/>
+    <row r="313" s="12" customFormat="1"/>
+    <row r="314" s="12" customFormat="1"/>
+    <row r="315" s="12" customFormat="1"/>
+    <row r="316" s="12" customFormat="1"/>
+    <row r="317" s="12" customFormat="1"/>
+    <row r="318" s="12" customFormat="1"/>
+    <row r="319" s="12" customFormat="1"/>
+    <row r="320" s="12" customFormat="1"/>
+    <row r="321" s="12" customFormat="1"/>
+    <row r="322" s="12" customFormat="1"/>
+    <row r="323" s="12" customFormat="1"/>
+    <row r="324" s="12" customFormat="1"/>
+    <row r="325" s="12" customFormat="1"/>
+    <row r="326" s="12" customFormat="1"/>
+    <row r="327" s="12" customFormat="1"/>
+    <row r="328" s="12" customFormat="1"/>
+    <row r="329" s="12" customFormat="1"/>
+    <row r="330" s="12" customFormat="1"/>
+    <row r="331" s="12" customFormat="1"/>
+    <row r="332" s="12" customFormat="1"/>
+    <row r="333" s="12" customFormat="1"/>
+    <row r="334" s="12" customFormat="1"/>
+    <row r="335" s="12" customFormat="1"/>
+    <row r="336" s="12" customFormat="1"/>
+    <row r="337" s="12" customFormat="1"/>
+    <row r="338" s="12" customFormat="1"/>
+    <row r="339" s="12" customFormat="1"/>
+    <row r="340" s="12" customFormat="1"/>
+    <row r="341" s="12" customFormat="1"/>
+    <row r="342" s="12" customFormat="1"/>
+    <row r="343" s="12" customFormat="1"/>
+    <row r="344" s="12" customFormat="1"/>
+    <row r="345" s="12" customFormat="1"/>
+    <row r="346" s="12" customFormat="1"/>
+    <row r="347" s="12" customFormat="1"/>
+    <row r="348" s="12" customFormat="1"/>
+    <row r="349" s="12" customFormat="1"/>
+    <row r="350" s="12" customFormat="1"/>
+    <row r="351" s="12" customFormat="1"/>
+    <row r="352" s="12" customFormat="1"/>
+    <row r="353" spans="1:8" s="12" customFormat="1"/>
+    <row r="354" spans="1:8" s="12" customFormat="1"/>
+    <row r="355" spans="1:8" s="12" customFormat="1"/>
+    <row r="356" spans="1:8" s="12" customFormat="1"/>
+    <row r="357" spans="1:8" s="12" customFormat="1"/>
+    <row r="358" spans="1:8">
+      <c r="A358" s="12"/>
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="12"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="12"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="12"/>
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="12"/>
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="12"/>
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="12"/>
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="12"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="12"/>
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="12"/>
+      <c r="H366" s="12"/>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="12"/>
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
+      <c r="H367" s="12"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="A2:H367">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>$H2="Created"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="44">
+      <formula>$H2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="45">
+      <formula>$H2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>$H2="Implemented"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>$H2="Deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 A3:H367">
+    <cfRule type="expression" dxfId="30" priority="37">
+      <formula>$H2="InWork"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:XFD357">
+    <cfRule type="expression" dxfId="29" priority="48">
+      <formula>$H30="Created"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="49">
+      <formula>$H30="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="50">
+      <formula>$H30="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="51">
+      <formula>$H30="Implemented"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="52">
+      <formula>$H30="Deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:XFD357">
+    <cfRule type="expression" dxfId="24" priority="63">
+      <formula>$H30="InWork"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
+      <formula1>statList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/LocalBusiness/Todo.xlsx
+++ b/LocalBusiness/Todo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>Priority</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Display, Events, Schedule</t>
+  </si>
+  <si>
+    <t>Contacts Responsive Format</t>
+  </si>
+  <si>
+    <t>Events Responsive Format</t>
+  </si>
+  <si>
+    <t>Brands Responsive Format</t>
+  </si>
+  <si>
+    <t>Schedule Responsive Format</t>
   </si>
 </sst>
 </file>
@@ -437,151 +449,7 @@
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <b/>
@@ -882,14 +750,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H38" totalsRowShown="0">
   <sortState ref="A2:H29">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Projectdependency _x000a_((low)1-(high)5)"/>
-    <tableColumn id="2" name="Effort _x000a_((low)1-(high)5)" dataDxfId="37"/>
-    <tableColumn id="8" name="Priority" dataDxfId="36">
+    <tableColumn id="2" name="Effort _x000a_((low)1-(high)5)" dataDxfId="25"/>
+    <tableColumn id="8" name="Priority" dataDxfId="24">
       <calculatedColumnFormula>(Tabelle1[[#This Row],[Projectdependency 
 ((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
 ((low)1-(high)5)]]))/2</calculatedColumnFormula>
@@ -1214,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1278,7 +1146,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1451,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1923,34 +1791,205 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1">
-      <c r="A29"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1"/>
-    <row r="31" spans="1:8" s="12" customFormat="1"/>
-    <row r="32" spans="1:8" s="12" customFormat="1"/>
-    <row r="33" s="12" customFormat="1"/>
-    <row r="34" s="12" customFormat="1"/>
-    <row r="35" s="12" customFormat="1"/>
-    <row r="36" s="12" customFormat="1"/>
-    <row r="37" s="12" customFormat="1"/>
-    <row r="38" s="12" customFormat="1"/>
-    <row r="39" s="12" customFormat="1"/>
-    <row r="40" s="12" customFormat="1"/>
-    <row r="41" s="12" customFormat="1"/>
-    <row r="42" s="12" customFormat="1"/>
-    <row r="43" s="12" customFormat="1"/>
-    <row r="44" s="12" customFormat="1"/>
-    <row r="45" s="12" customFormat="1"/>
-    <row r="46" s="12" customFormat="1"/>
-    <row r="47" s="12" customFormat="1"/>
-    <row r="48" s="12" customFormat="1"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="12" customFormat="1">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="12" customFormat="1">
+      <c r="A33"/>
+      <c r="B33" s="2"/>
+      <c r="C33">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" s="12" customFormat="1">
+      <c r="A34"/>
+      <c r="B34" s="2"/>
+      <c r="C34">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" s="12" customFormat="1">
+      <c r="A35"/>
+      <c r="B35" s="2"/>
+      <c r="C35">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" s="12" customFormat="1">
+      <c r="A36"/>
+      <c r="B36" s="2"/>
+      <c r="C36">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" s="12" customFormat="1">
+      <c r="A37"/>
+      <c r="B37" s="2"/>
+      <c r="C37">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" s="12" customFormat="1">
+      <c r="A38"/>
+      <c r="B38" s="2"/>
+      <c r="C38">
+        <f>(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2</f>
+        <v>3</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" s="12" customFormat="1"/>
+    <row r="40" spans="1:8" s="12" customFormat="1"/>
+    <row r="41" spans="1:8" s="12" customFormat="1"/>
+    <row r="42" spans="1:8" s="12" customFormat="1"/>
+    <row r="43" spans="1:8" s="12" customFormat="1"/>
+    <row r="44" spans="1:8" s="12" customFormat="1"/>
+    <row r="45" spans="1:8" s="12" customFormat="1"/>
+    <row r="46" spans="1:8" s="12" customFormat="1"/>
+    <row r="47" spans="1:8" s="12" customFormat="1"/>
+    <row r="48" spans="1:8" s="12" customFormat="1"/>
     <row r="49" s="12" customFormat="1"/>
     <row r="50" s="12" customFormat="1"/>
     <row r="51" s="12" customFormat="1"/>
@@ -2360,54 +2399,144 @@
       <c r="G367" s="12"/>
       <c r="H367" s="12"/>
     </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="12"/>
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="12"/>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="12"/>
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="12"/>
+      <c r="H369" s="12"/>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="12"/>
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
+      <c r="H370" s="12"/>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="12"/>
+      <c r="B371" s="12"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="12"/>
+      <c r="H371" s="12"/>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" s="12"/>
+      <c r="B372" s="12"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="12"/>
+      <c r="H372" s="12"/>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" s="12"/>
+      <c r="B373" s="12"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="12"/>
+      <c r="G373" s="12"/>
+      <c r="H373" s="12"/>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" s="12"/>
+      <c r="B374" s="12"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+      <c r="F374" s="12"/>
+      <c r="G374" s="12"/>
+      <c r="H374" s="12"/>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" s="12"/>
+      <c r="B375" s="12"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="12"/>
+      <c r="H375" s="12"/>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" s="12"/>
+      <c r="B376" s="12"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
+      <c r="F376" s="12"/>
+      <c r="G376" s="12"/>
+      <c r="H376" s="12"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A2:H367">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="A2:H376">
+    <cfRule type="expression" dxfId="17" priority="43">
       <formula>$H2="Created"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44">
+    <cfRule type="expression" dxfId="16" priority="44">
       <formula>$H2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="45">
+    <cfRule type="expression" dxfId="15" priority="45">
       <formula>$H2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="14" priority="46">
       <formula>$H2="Implemented"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>$H2="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 A3:H367">
-    <cfRule type="expression" dxfId="30" priority="37">
+  <conditionalFormatting sqref="H2 A3:H376">
+    <cfRule type="expression" dxfId="12" priority="37">
       <formula>$H2="InWork"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:XFD357">
-    <cfRule type="expression" dxfId="29" priority="48">
-      <formula>$H30="Created"</formula>
+    <cfRule type="expression" dxfId="11" priority="48">
+      <formula>$H39="Created"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="49">
-      <formula>$H30="Done"</formula>
+    <cfRule type="expression" dxfId="10" priority="49">
+      <formula>$H39="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="50">
-      <formula>$H30="Ready"</formula>
+    <cfRule type="expression" dxfId="9" priority="50">
+      <formula>$H39="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="51">
-      <formula>$H30="Implemented"</formula>
+    <cfRule type="expression" dxfId="8" priority="51">
+      <formula>$H39="Implemented"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="52">
-      <formula>$H30="Deprecated"</formula>
+    <cfRule type="expression" dxfId="7" priority="52">
+      <formula>$H39="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:XFD357">
-    <cfRule type="expression" dxfId="24" priority="63">
-      <formula>$H30="InWork"</formula>
+    <cfRule type="expression" dxfId="6" priority="63">
+      <formula>$H39="InWork"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38">
       <formula1>statList</formula1>
     </dataValidation>
   </dataValidations>

--- a/LocalBusiness/Todo.xlsx
+++ b/LocalBusiness/Todo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>Priority</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>Schedule Responsive Format</t>
+  </si>
+  <si>
+    <t>Schedule current day highlight</t>
+  </si>
+  <si>
+    <t>Layout, CSS, Schedule</t>
+  </si>
+  <si>
+    <t>Highlight the current day</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>Schedula Day always Monday</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -440,16 +455,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Ausgabe" xfId="5" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -521,6 +540,9 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -666,84 +688,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -756,11 +700,12 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Projectdependency _x000a_((low)1-(high)5)"/>
-    <tableColumn id="2" name="Effort _x000a_((low)1-(high)5)" dataDxfId="25"/>
-    <tableColumn id="8" name="Priority" dataDxfId="24">
-      <calculatedColumnFormula>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</calculatedColumnFormula>
+    <tableColumn id="2" name="Effort _x000a_((low)1-(high)5)" dataDxfId="7"/>
+    <tableColumn id="8" name="Priority" dataDxfId="0">
+      <calculatedColumnFormula>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Type"/>
@@ -797,9 +742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -837,7 +782,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -907,7 +852,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1084,11 +1029,11 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
@@ -1133,9 +1078,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4.5</v>
       </c>
       <c r="D2" t="s">
@@ -1156,10 +1102,11 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C3" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4.5</v>
       </c>
       <c r="D3" t="s">
@@ -1179,10 +1126,11 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C4" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4.5</v>
       </c>
       <c r="D4" t="s">
@@ -1203,9 +1151,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -1229,9 +1178,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -1255,9 +1205,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4</v>
       </c>
       <c r="D7" t="s">
@@ -1281,9 +1232,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -1306,10 +1258,11 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C9" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3.5</v>
       </c>
       <c r="D9" t="s">
@@ -1329,10 +1282,11 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C10" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3.5</v>
       </c>
       <c r="D10" t="s">
@@ -1352,10 +1306,11 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C11" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3.5</v>
       </c>
       <c r="D11" t="s">
@@ -1376,9 +1331,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3.5</v>
       </c>
       <c r="D12" t="s">
@@ -1402,9 +1358,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3.5</v>
       </c>
       <c r="D13" t="s">
@@ -1427,10 +1384,11 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C14" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D14" t="s">
@@ -1451,9 +1409,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D15" t="s">
@@ -1476,10 +1435,11 @@
       <c r="B16">
         <v>3.5</v>
       </c>
-      <c r="C16">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C16" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.75</v>
       </c>
       <c r="D16" t="s">
@@ -1499,10 +1459,11 @@
       <c r="B17">
         <v>3.5</v>
       </c>
-      <c r="C17">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C17" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.75</v>
       </c>
       <c r="D17" t="s">
@@ -1522,10 +1483,11 @@
       <c r="B18">
         <v>3.5</v>
       </c>
-      <c r="C18">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C18" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.75</v>
       </c>
       <c r="D18" t="s">
@@ -1545,10 +1507,11 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C19" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.5</v>
       </c>
       <c r="D19" t="s">
@@ -1568,10 +1531,11 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C20" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.5</v>
       </c>
       <c r="D20" t="s">
@@ -1593,10 +1557,11 @@
       <c r="B21">
         <v>3.5</v>
       </c>
-      <c r="C21">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C21" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.25</v>
       </c>
       <c r="D21" t="s">
@@ -1619,9 +1584,10 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.25</v>
       </c>
       <c r="D22" t="s">
@@ -1646,9 +1612,10 @@
         <v>3.5</v>
       </c>
       <c r="C23" s="2">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2.25</v>
       </c>
       <c r="D23" t="s">
@@ -1672,10 +1639,11 @@
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C24" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -1697,10 +1665,11 @@
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C25" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -1722,10 +1691,11 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C26" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>1.5</v>
       </c>
       <c r="D26" t="s">
@@ -1747,10 +1717,11 @@
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C27" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
@@ -1772,10 +1743,11 @@
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C28" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -1797,10 +1769,11 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C29" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D29" t="s">
@@ -1822,10 +1795,11 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C30" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D30" t="s">
@@ -1847,10 +1821,11 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C31" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D31" t="s">
@@ -1872,10 +1847,11 @@
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C32" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>2</v>
       </c>
       <c r="D32" t="s">
@@ -1893,40 +1869,61 @@
     <row r="33" spans="1:8" s="12" customFormat="1">
       <c r="A33"/>
       <c r="B33" s="2"/>
-      <c r="C33">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C33" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
       <c r="G33"/>
-      <c r="H33"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
-        <v>3</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+      <c r="C34" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
       <c r="G34"/>
-      <c r="H34"/>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1">
       <c r="A35"/>
       <c r="B35" s="2"/>
-      <c r="C35">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C35" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D35"/>
@@ -1938,10 +1935,11 @@
     <row r="36" spans="1:8" s="12" customFormat="1">
       <c r="A36"/>
       <c r="B36" s="2"/>
-      <c r="C36">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C36" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D36"/>
@@ -1953,10 +1951,11 @@
     <row r="37" spans="1:8" s="12" customFormat="1">
       <c r="A37"/>
       <c r="B37" s="2"/>
-      <c r="C37">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C37" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D37"/>
@@ -1968,10 +1967,11 @@
     <row r="38" spans="1:8" s="12" customFormat="1">
       <c r="A38"/>
       <c r="B38" s="2"/>
-      <c r="C38">
-        <f>(Tabelle1[[#This Row],[Projectdependency 
-((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
-((low)1-(high)5)]]))/2</f>
+      <c r="C38" s="13">
+        <f>IF(EXACT(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]],"BUG"),200,(Tabelle1[[#This Row],[Projectdependency 
+((low)1-(high)5)]]+(6-Tabelle1[[#This Row],[Effort 
+((low)1-(high)5)]]))/2)</f>
         <v>3</v>
       </c>
       <c r="D38"/>
@@ -2492,46 +2492,46 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2:H376">
-    <cfRule type="expression" dxfId="17" priority="43">
+    <cfRule type="expression" dxfId="19" priority="43">
       <formula>$H2="Created"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="44">
+    <cfRule type="expression" dxfId="18" priority="44">
       <formula>$H2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="45">
+    <cfRule type="expression" dxfId="17" priority="45">
       <formula>$H2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="46">
+    <cfRule type="expression" dxfId="16" priority="46">
       <formula>$H2="Implemented"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="47">
+    <cfRule type="expression" dxfId="15" priority="47">
       <formula>$H2="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 A3:H376">
-    <cfRule type="expression" dxfId="12" priority="37">
+    <cfRule type="expression" dxfId="14" priority="37">
       <formula>$H2="InWork"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:XFD357">
-    <cfRule type="expression" dxfId="11" priority="48">
+    <cfRule type="expression" dxfId="13" priority="48">
       <formula>$H39="Created"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="49">
+    <cfRule type="expression" dxfId="12" priority="49">
       <formula>$H39="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="50">
+    <cfRule type="expression" dxfId="11" priority="50">
       <formula>$H39="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="51">
+    <cfRule type="expression" dxfId="10" priority="51">
       <formula>$H39="Implemented"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="52">
+    <cfRule type="expression" dxfId="9" priority="52">
       <formula>$H39="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:XFD357">
-    <cfRule type="expression" dxfId="6" priority="63">
+    <cfRule type="expression" dxfId="8" priority="63">
       <formula>$H39="InWork"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2557,7 +2557,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
@@ -2685,7 +2685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
